--- a/Crawling/music/crawled_data/outlier_data/2022-05-02_2022-05-08/flo/[flo]20220502_20220508_mean_outliers.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-02_2022-05-08/flo/[flo]20220502_20220508_mean_outliers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>날짜</t>
   </si>
@@ -40,118 +40,13 @@
     <t>소속사_분류</t>
   </si>
   <si>
+    <t>순위평균</t>
+  </si>
+  <si>
     <t>순위변동</t>
   </si>
   <si>
     <t>순위변동평균(양수)</t>
-  </si>
-  <si>
-    <t>2022-05-02</t>
-  </si>
-  <si>
-    <t>flo</t>
-  </si>
-  <si>
-    <t>신호등</t>
-  </si>
-  <si>
-    <t>회전목마 (Feat. Zion.T, 원슈타인) (Prod. Slom)</t>
-  </si>
-  <si>
-    <t>리무진 (Feat. MINO) (Prod. GRAY)</t>
-  </si>
-  <si>
-    <t>사계 (Four Seasons)</t>
-  </si>
-  <si>
-    <t>Stronger (What Doesn't Kill You)</t>
-  </si>
-  <si>
-    <t>롤린 (Rollin')</t>
-  </si>
-  <si>
-    <t>아버지</t>
-  </si>
-  <si>
-    <t>사랑해 진짜</t>
-  </si>
-  <si>
-    <t>FEARLESS</t>
-  </si>
-  <si>
-    <t>초대</t>
-  </si>
-  <si>
-    <t>이무진</t>
-  </si>
-  <si>
-    <t>sokodomo</t>
-  </si>
-  <si>
-    <t>BE'O (비오)</t>
-  </si>
-  <si>
-    <t>태연 (TAEYEON)</t>
-  </si>
-  <si>
-    <t>Kelly Clarkson</t>
-  </si>
-  <si>
-    <t>브레이브걸스</t>
-  </si>
-  <si>
-    <t>임영웅</t>
-  </si>
-  <si>
-    <t>LE SSERAFIM (르세라핌)</t>
-  </si>
-  <si>
-    <t>멜로망스</t>
-  </si>
-  <si>
-    <t>쇼미더머니 10 Episode 2</t>
-  </si>
-  <si>
-    <t>쇼미더머니 10 Episode 3</t>
-  </si>
-  <si>
-    <t>Stronger (Deluxe Version)</t>
-  </si>
-  <si>
-    <t>Rollin'</t>
-  </si>
-  <si>
-    <t>IM HERO</t>
-  </si>
-  <si>
-    <t>빅플래닛메이드</t>
-  </si>
-  <si>
-    <t>SONY MUSIC</t>
-  </si>
-  <si>
-    <t>스윙</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>해외</t>
-  </si>
-  <si>
-    <t>BRAVE</t>
-  </si>
-  <si>
-    <t>물고기뮤직</t>
-  </si>
-  <si>
-    <t>SOURCE MUSIC</t>
-  </si>
-  <si>
-    <t>ABYSS</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -509,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,301 +441,8 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>92</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8">
-        <v>5.333333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9">
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/outlier_data/2022-05-02_2022-05-08/flo/[flo]20220502_20220508_mean_outliers.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-02_2022-05-08/flo/[flo]20220502_20220508_mean_outliers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>날짜</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>소속사_분류</t>
-  </si>
-  <si>
-    <t>순위평균</t>
   </si>
   <si>
     <t>순위변동</t>
@@ -404,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,9 +437,6 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
